--- a/TEXTO DO MENU.xlsx
+++ b/TEXTO DO MENU.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="140">
   <si>
     <t>Um corn dog: Salsicha 100% de carne bovina, empanada na massa de milho. Uma batata frita crinkle Nathan's. Um refrigerante à sua escolha.</t>
   </si>
@@ -517,11 +517,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,15 +853,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="3"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -873,7 +873,7 @@
       <c r="C3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -890,7 +890,7 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -907,7 +907,7 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -924,7 +924,7 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -941,7 +941,7 @@
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -958,7 +958,7 @@
       <c r="D8">
         <v>5</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -975,7 +975,7 @@
       <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -992,7 +992,7 @@
       <c r="D10">
         <v>7</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="D11">
         <v>8</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       <c r="C12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       <c r="D13">
         <v>9</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       <c r="D14">
         <v>10</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       <c r="D15">
         <v>11</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       <c r="D16">
         <v>12</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       <c r="D17">
         <v>13</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       <c r="C18" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       <c r="D19">
         <v>14</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       <c r="D20">
         <v>15</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       <c r="D21">
         <v>16</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       <c r="C22" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       <c r="D23">
         <v>17</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       <c r="D24">
         <v>18</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       <c r="D25">
         <v>19</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       <c r="D26">
         <v>20</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       <c r="D27">
         <v>21</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       <c r="D28">
         <v>22</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       <c r="D29">
         <v>23</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       <c r="D30">
         <v>24</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       <c r="C31" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       <c r="D32">
         <v>25</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       <c r="D33">
         <v>26</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       <c r="D34">
         <v>27</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       <c r="D35">
         <v>28</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       <c r="D36">
         <v>29</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       <c r="D37">
         <v>30</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       <c r="D38">
         <v>31</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       <c r="C39" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       <c r="D40">
         <v>32</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       <c r="D41">
         <v>33</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       <c r="D42">
         <v>34</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
       <c r="D43">
         <v>35</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       <c r="D44">
         <v>36</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       <c r="C45" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       <c r="D46">
         <v>37</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       <c r="D47">
         <v>38</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       <c r="D48">
         <v>39</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       <c r="D49">
         <v>40</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       <c r="D50">
         <v>41</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       <c r="D51">
         <v>42</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       <c r="D52">
         <v>43</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       <c r="C53" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       <c r="D54">
         <v>44</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       <c r="D55">
         <v>45</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
       <c r="D56">
         <v>46</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       <c r="D57">
         <v>47</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       <c r="D58">
         <v>48</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       <c r="D59">
         <v>49</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
       <c r="C60" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
       <c r="D61">
         <v>50</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1852,7 +1852,7 @@
       <c r="D62">
         <v>51</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       <c r="D63">
         <v>52</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       <c r="D64">
         <v>53</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       <c r="D65">
         <v>54</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1920,7 +1920,7 @@
       <c r="D66">
         <v>55</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       <c r="D67">
         <v>56</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       <c r="D68">
         <v>57</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       <c r="D69">
         <v>58</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       <c r="D70">
         <v>59</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       <c r="D71">
         <v>60</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
       <c r="D72">
         <v>61</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       <c r="D73">
         <v>62</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       <c r="D74">
         <v>63</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2073,11 +2073,11 @@
       <c r="D75">
         <v>64</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E75" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>68</v>
       </c>
@@ -2199,8 +2199,8 @@
       <c r="C84" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E84">
-        <v>11</v>
+      <c r="E84" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2216,6 +2216,9 @@
       <c r="D85">
         <v>72</v>
       </c>
+      <c r="E85" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -2230,6 +2233,9 @@
       <c r="D86">
         <v>73</v>
       </c>
+      <c r="E86" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
@@ -2244,6 +2250,9 @@
       <c r="D87">
         <v>74</v>
       </c>
+      <c r="E87" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
@@ -2258,6 +2267,9 @@
       <c r="D88">
         <v>75</v>
       </c>
+      <c r="E88" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
@@ -2271,6 +2283,9 @@
       </c>
       <c r="D89">
         <v>76</v>
+      </c>
+      <c r="E89" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
